--- a/Data/EC/NIT-8305062129.xlsx
+++ b/Data/EC/NIT-8305062129.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FEA1AB7-8280-4963-AEDD-BF22DDD00136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CFF436E-A007-4AD7-BFBC-258F2692AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81B533DC-784D-44DB-9BE4-BE4FABE9389C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{649A1B0E-7E2D-492F-8F37-055FD0AA4143}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -413,7 +411,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -607,29 +607,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,19 +648,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +719,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D4591B-FD99-EDDC-1F41-FD733821F2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DBFA85-7AA2-7C81-D0CB-1ADEEC4DF411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0DA926-C43B-4ADC-A4CB-EE5941A13B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F2CFCB-4026-484E-9672-652FAB9146E5}">
   <dimension ref="B2:J98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1087,49 +1093,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1137,7 +1143,7 @@
         <v>89</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8305062129</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2352028</v>
       </c>
@@ -1238,18 +1244,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>26280</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1261,18 +1267,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29200</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1284,18 +1290,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29200</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1307,18 +1313,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29200</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1330,18 +1336,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>29200</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1353,18 +1359,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>29200</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1376,18 +1382,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29200</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1399,18 +1405,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29200</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1422,18 +1428,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29200</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1445,18 +1451,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29200</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1468,18 +1474,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>29200</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1491,18 +1497,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>29200</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1514,18 +1520,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>29200</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1537,18 +1543,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>29200</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1560,18 +1566,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>29200</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1583,18 +1589,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29200</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1606,18 +1612,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>29200</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1629,18 +1635,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>29200</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1652,18 +1658,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>29200</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1675,18 +1681,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>29200</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1698,18 +1704,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>29200</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1721,18 +1727,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>29200</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1744,18 +1750,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>29200</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1767,18 +1773,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>29200</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1790,18 +1796,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>29200</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1813,18 +1819,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1836,18 +1842,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1859,18 +1865,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1882,18 +1888,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1905,18 +1911,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1928,18 +1934,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1951,18 +1957,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1974,18 +1980,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1997,18 +2003,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2020,18 +2026,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2043,18 +2049,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2066,18 +2072,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2089,18 +2095,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2112,18 +2118,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2135,18 +2141,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2158,18 +2164,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2181,18 +2187,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2204,18 +2210,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2227,18 +2233,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2250,18 +2256,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2273,18 +2279,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2296,18 +2302,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2319,18 +2325,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2342,18 +2348,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2365,18 +2371,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2388,18 +2394,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2411,18 +2417,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2434,18 +2440,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2457,18 +2463,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2480,18 +2486,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2503,18 +2509,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2526,18 +2532,18 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G72" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2549,18 +2555,18 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2572,18 +2578,18 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G74" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G74" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2595,18 +2601,18 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2618,18 +2624,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G76" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G76" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2641,18 +2647,18 @@
       <c r="D77" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2664,18 +2670,18 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G78" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G78" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2687,18 +2693,18 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2710,18 +2716,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F80" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G80" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2733,18 +2739,18 @@
       <c r="D81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2756,18 +2762,18 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F82" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G82" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G82" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2779,18 +2785,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2802,18 +2808,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G84" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G84" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2825,18 +2831,18 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2848,18 +2854,18 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G86" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G86" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2871,18 +2877,18 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2894,18 +2900,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G88" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G88" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2917,18 +2923,18 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2940,18 +2946,18 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F90" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G90" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G90" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2963,47 +2969,47 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="22" t="s">
+      <c r="B92" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G92" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
+      <c r="F92" s="26">
+        <v>31249</v>
+      </c>
+      <c r="G92" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="28"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="32" t="s">
+      <c r="B97" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="32"/>
+      <c r="C97" s="34"/>
       <c r="H97" s="1" t="s">
         <v>97</v>
       </c>
@@ -3011,10 +3017,10 @@
       <c r="J97" s="1"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="32"/>
+      <c r="C98" s="34"/>
       <c r="H98" s="1" t="s">
         <v>98</v>
       </c>
